--- a/data/trans_orig/IP44S4_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP44S4_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DA7E5E0-4FE1-40CC-AE34-C4B236689C6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FA866EAA-28A1-49B8-BC1E-6610A97EFCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{B5925960-A277-4881-A744-5A7553EA8151}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{D7ABD49E-BE09-471F-B0E7-826E5C327890}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Otros</t>
@@ -77,10 +77,10 @@
     <t>Impuestos (IBI, los relacionados con vehículos, etc)</t>
   </si>
   <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>10/50</t>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -107,7 +107,7 @@
     <t>34,87%</t>
   </si>
   <si>
-    <t>mas de 50</t>
+    <t>&gt;50.000hab</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -525,7 +525,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E6F3C0-12B3-4E09-B13F-21780F5FD5EB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6840FAD5-ADE7-4AB0-8C75-768197B51D13}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
